--- a/biology/Zoologie/Hudiesaurus/Hudiesaurus.xlsx
+++ b/biology/Zoologie/Hudiesaurus/Hudiesaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hudiesaurus (signifiant « lézard papillon) est un genre de dinosaures sauropodes du Jurassique retrouvé en Chine. Il aurait mesuré une trentaine de mètres de longueur[1],[2].
-L'espèce-type, H. sinojapanorum, a été décrite par Z. Dong en 1997[1]. Le nom générique est tiré du mandarin hudie (« papillon »), faisant référence à la forme de la vertèbre dorsale retrouvée, d'une taille de 55 centimètres[1]. Le nom spécifique réfère aux membres de l'expédition, mais peut également être lu comme « partie centrale » en chinois, un jeu de mots avec le nom du groupe de presse japonais Chunichi Shinbun, qui a financé les recherches.
-L'espèce-type est basée sur des fossiles retrouvés en 1993 dans la formation géologique Kalazha (en) près de Qiketia, au Shanshan, par une expédition sino-japonaise. Le spécimen type, IVPP V 11120, est composé d'une vertèbre dorsale. D'autres restes d'un spécimen apparemment plus petit, IVPP P. 11121, ont été retrouvés à environ un kilomètre de l'holotype. Ils consistent en une jambe avant droite presque complète et de dents[1].
-En 2004, Paul Upchurch rejette l'identification en raison de manque de matériel[3].
-Dong pense que Hudiesaurus a pu être lié à Mamenchisaurus et l'a donc classé dans les Mamenchisauridae[1]. Cependant, Upchurch affirme qu'il serait une autre sorte d'Eusauropoda[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hudiesaurus (signifiant « lézard papillon) est un genre de dinosaures sauropodes du Jurassique retrouvé en Chine. Il aurait mesuré une trentaine de mètres de longueur,.
+L'espèce-type, H. sinojapanorum, a été décrite par Z. Dong en 1997. Le nom générique est tiré du mandarin hudie (« papillon »), faisant référence à la forme de la vertèbre dorsale retrouvée, d'une taille de 55 centimètres. Le nom spécifique réfère aux membres de l'expédition, mais peut également être lu comme « partie centrale » en chinois, un jeu de mots avec le nom du groupe de presse japonais Chunichi Shinbun, qui a financé les recherches.
+L'espèce-type est basée sur des fossiles retrouvés en 1993 dans la formation géologique Kalazha (en) près de Qiketia, au Shanshan, par une expédition sino-japonaise. Le spécimen type, IVPP V 11120, est composé d'une vertèbre dorsale. D'autres restes d'un spécimen apparemment plus petit, IVPP P. 11121, ont été retrouvés à environ un kilomètre de l'holotype. Ils consistent en une jambe avant droite presque complète et de dents.
+En 2004, Paul Upchurch rejette l'identification en raison de manque de matériel.
+Dong pense que Hudiesaurus a pu être lié à Mamenchisaurus et l'a donc classé dans les Mamenchisauridae. Cependant, Upchurch affirme qu'il serait une autre sorte d'Eusauropoda.
 </t>
         </is>
       </c>
